--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_12_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_12_1.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_12</t>
+          <t>model_12_1_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.492108732262052</v>
+        <v>0.05706809978282501</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.069136238423237</v>
+        <v>-0.2385899554003357</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6272906353418637</v>
+        <v>-0.5316265055308003</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8084831822675997</v>
+        <v>-0.2576982911964609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5620859861373901</v>
+        <v>1.043547749519348</v>
       </c>
       <c r="G2" t="n">
-        <v>1.769341111183167</v>
+        <v>1.201628088951111</v>
       </c>
       <c r="H2" t="n">
-        <v>1.919389486312866</v>
+        <v>2.787129640579224</v>
       </c>
       <c r="I2" t="n">
-        <v>1.839952111244202</v>
+        <v>1.947746276855469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_6</t>
+          <t>model_12_1_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4934604780701592</v>
+        <v>0.06125827019749119</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.100911967302583</v>
+        <v>-0.711154987868273</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5837769863638318</v>
+        <v>0.3521551909830088</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.798882507023188</v>
+        <v>0.07426661875105511</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5605899691581726</v>
+        <v>1.038910508155823</v>
       </c>
       <c r="G3" t="n">
-        <v>1.796513199806213</v>
+        <v>1.660090804100037</v>
       </c>
       <c r="H3" t="n">
-        <v>1.868065118789673</v>
+        <v>1.178895354270935</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8301842212677</v>
+        <v>1.433645963668823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_15</t>
+          <t>model_12_1_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4936842020106188</v>
+        <v>0.06217939703634112</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.061105844308365</v>
+        <v>-0.1114125475159635</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6237902272790863</v>
+        <v>-0.5464531250386404</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8030003400391585</v>
+        <v>-0.2237182695847515</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5603424310684204</v>
+        <v>1.037891149520874</v>
       </c>
       <c r="G4" t="n">
-        <v>1.762474417686462</v>
+        <v>1.078245759010315</v>
       </c>
       <c r="H4" t="n">
-        <v>1.915260553359985</v>
+        <v>2.814109802246094</v>
       </c>
       <c r="I4" t="n">
-        <v>1.834373831748962</v>
+        <v>1.895123243331909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_14</t>
+          <t>model_12_1_12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4937070431201541</v>
+        <v>0.1247654212951732</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.060814167503263</v>
+        <v>-0.6629452876825075</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.623857138697183</v>
+        <v>-1.073801292395252</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8029062141931964</v>
+        <v>-0.6982333851684841</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5603170990943909</v>
+        <v>0.9686266779899597</v>
       </c>
       <c r="G5" t="n">
-        <v>1.762224912643433</v>
+        <v>1.613319754600525</v>
       </c>
       <c r="H5" t="n">
-        <v>1.915339469909668</v>
+        <v>3.773735284805298</v>
       </c>
       <c r="I5" t="n">
-        <v>1.834277987480164</v>
+        <v>2.629985332489014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_13</t>
+          <t>model_12_1_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4937266008311904</v>
+        <v>0.1277428917442136</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.060882251746227</v>
+        <v>-0.4050006180737145</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6236648198046035</v>
+        <v>0.240882348078524</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8028325718438443</v>
+        <v>0.1142738973299683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5602955222129822</v>
+        <v>0.9653316140174866</v>
       </c>
       <c r="G6" t="n">
-        <v>1.762283086776733</v>
+        <v>1.363072752952576</v>
       </c>
       <c r="H6" t="n">
-        <v>1.915112733840942</v>
+        <v>1.381380677223206</v>
       </c>
       <c r="I6" t="n">
-        <v>1.834203004837036</v>
+        <v>1.3716881275177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_17</t>
+          <t>model_12_1_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.493754053908576</v>
+        <v>0.135474801854099</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.060402380333099</v>
+        <v>-0.1519996695147743</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6240257060275878</v>
+        <v>-0.4300895089357668</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8028142911497067</v>
+        <v>-0.1728353873443647</v>
       </c>
       <c r="F7" t="n">
-        <v>0.560265064239502</v>
+        <v>0.9567746520042419</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7618727684021</v>
+        <v>1.117621779441833</v>
       </c>
       <c r="H7" t="n">
-        <v>1.915538311004639</v>
+        <v>2.602360963821411</v>
       </c>
       <c r="I7" t="n">
-        <v>1.834184527397156</v>
+        <v>1.816322922706604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_18</t>
+          <t>model_12_1_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4937691587439397</v>
+        <v>0.1368072471376177</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.060323945142037</v>
+        <v>-0.2872953933976587</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6239933227311061</v>
+        <v>0.03021620822131799</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8027630278427433</v>
+        <v>0.03682190616795744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5602483749389648</v>
+        <v>0.955299973487854</v>
       </c>
       <c r="G8" t="n">
-        <v>1.761805772781372</v>
+        <v>1.248879909515381</v>
       </c>
       <c r="H8" t="n">
-        <v>1.915500164031982</v>
+        <v>1.764733791351318</v>
       </c>
       <c r="I8" t="n">
-        <v>1.834132432937622</v>
+        <v>1.491634964942932</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_20</t>
+          <t>model_12_1_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4937920477523233</v>
+        <v>0.1663405178782422</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.060118991143044</v>
+        <v>-0.1068072814689311</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6240370133401989</v>
+        <v>-0.3665352852224253</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8026963695588112</v>
+        <v>-0.1227046413699104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5602230429649353</v>
+        <v>0.9226154685020447</v>
       </c>
       <c r="G9" t="n">
-        <v>1.761630535125732</v>
+        <v>1.073777914047241</v>
       </c>
       <c r="H9" t="n">
-        <v>1.915551781654358</v>
+        <v>2.486709833145142</v>
       </c>
       <c r="I9" t="n">
-        <v>1.834064483642578</v>
+        <v>1.73868727684021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_22</t>
+          <t>model_12_1_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.49380093822848</v>
+        <v>0.1901471681208923</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.060103971720031</v>
+        <v>-0.6999222549835651</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6240214954104413</v>
+        <v>-1.088921379124801</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8026806134862203</v>
+        <v>-0.7188582026061312</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5602131485939026</v>
+        <v>0.8962684273719788</v>
       </c>
       <c r="G10" t="n">
-        <v>1.761617660522461</v>
+        <v>1.649193286895752</v>
       </c>
       <c r="H10" t="n">
-        <v>1.915533304214478</v>
+        <v>3.801249742507935</v>
       </c>
       <c r="I10" t="n">
-        <v>1.834048509597778</v>
+        <v>2.66192626953125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_23</t>
+          <t>model_12_1_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.493847632163771</v>
+        <v>0.1915101578093853</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.060069628335499</v>
+        <v>-0.6933119150229725</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6237736112997307</v>
+        <v>-1.108573313161707</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.802530790875928</v>
+        <v>-0.7275320788615722</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5601615309715271</v>
+        <v>0.8947600126266479</v>
       </c>
       <c r="G11" t="n">
-        <v>1.761588215827942</v>
+        <v>1.642780184745789</v>
       </c>
       <c r="H11" t="n">
-        <v>1.915241003036499</v>
+        <v>3.837010383605957</v>
       </c>
       <c r="I11" t="n">
-        <v>1.833896040916443</v>
+        <v>2.67535924911499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_19</t>
+          <t>model_12_1_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4938495899546405</v>
+        <v>0.1939929379526619</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.060085023041389</v>
+        <v>-0.6938248827483873</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6236890891657221</v>
+        <v>-1.10513797094858</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8024900946172391</v>
+        <v>-0.7258028872451787</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5601593852043152</v>
+        <v>0.8920122981071472</v>
       </c>
       <c r="G12" t="n">
-        <v>1.761601567268372</v>
+        <v>1.643277883529663</v>
       </c>
       <c r="H12" t="n">
-        <v>1.915141344070435</v>
+        <v>3.830759048461914</v>
       </c>
       <c r="I12" t="n">
-        <v>1.833854794502258</v>
+        <v>2.672681331634521</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_21</t>
+          <t>model_12_1_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4938512486588227</v>
+        <v>0.2022584373102928</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.059871421967506</v>
+        <v>-0.6403938210858167</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6238589287492295</v>
+        <v>-1.103493234706655</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8024880206573253</v>
+        <v>-0.707172670267719</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5601574778556824</v>
+        <v>0.8828648924827576</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76141881942749</v>
+        <v>1.59144127368927</v>
       </c>
       <c r="H13" t="n">
-        <v>1.91534161567688</v>
+        <v>3.827766180038452</v>
       </c>
       <c r="I13" t="n">
-        <v>1.833852529525757</v>
+        <v>2.643829584121704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_24</t>
+          <t>model_12_1_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4938672725685855</v>
+        <v>0.2052589386366718</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.059903410494245</v>
+        <v>-0.6304939651881261</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6237850670554415</v>
+        <v>-1.096736829509677</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8024633697660466</v>
+        <v>-0.700153183072149</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5601397752761841</v>
+        <v>0.879544198513031</v>
       </c>
       <c r="G14" t="n">
-        <v>1.761446118354797</v>
+        <v>1.581836938858032</v>
       </c>
       <c r="H14" t="n">
-        <v>1.915254592895508</v>
+        <v>3.815471410751343</v>
       </c>
       <c r="I14" t="n">
-        <v>1.833827495574951</v>
+        <v>2.632958650588989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_16</t>
+          <t>model_12_1_22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4939194970874375</v>
+        <v>0.211204902002747</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.059766222638642</v>
+        <v>-0.5949818488752532</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6234146828181724</v>
+        <v>-1.093215378226855</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8021998121609279</v>
+        <v>-0.6864287113711791</v>
       </c>
       <c r="F15" t="n">
-        <v>0.560081958770752</v>
+        <v>0.8729638457298279</v>
       </c>
       <c r="G15" t="n">
-        <v>1.761328935623169</v>
+        <v>1.54738450050354</v>
       </c>
       <c r="H15" t="n">
-        <v>1.914817571640015</v>
+        <v>3.809063673019409</v>
       </c>
       <c r="I15" t="n">
-        <v>1.833559393882751</v>
+        <v>2.611703872680664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_10</t>
+          <t>model_12_1_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4939938124713656</v>
+        <v>0.2149044092285147</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.085409682741004</v>
+        <v>-0.5749722584246013</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6001131592112645</v>
+        <v>-1.089496608246132</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.8008956417480664</v>
+        <v>-0.6777362034908305</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5599997639656067</v>
+        <v>0.8688694834709167</v>
       </c>
       <c r="G16" t="n">
-        <v>1.783256769180298</v>
+        <v>1.527971982955933</v>
       </c>
       <c r="H16" t="n">
-        <v>1.887333512306213</v>
+        <v>3.80229640007019</v>
       </c>
       <c r="I16" t="n">
-        <v>1.832232475280762</v>
+        <v>2.598242044448853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_7</t>
+          <t>model_12_1_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4946452468685999</v>
+        <v>0.2150704207508614</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.096232166839792</v>
+        <v>-0.5709183555941366</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5806470337989071</v>
+        <v>-1.091293352203961</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7950938783620369</v>
+        <v>-0.6773854356890854</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5592788457870483</v>
+        <v>0.8686857223510742</v>
       </c>
       <c r="G17" t="n">
-        <v>1.792511224746704</v>
+        <v>1.524039149284363</v>
       </c>
       <c r="H17" t="n">
-        <v>1.864373326301575</v>
+        <v>3.805566072463989</v>
       </c>
       <c r="I17" t="n">
-        <v>1.826329708099365</v>
+        <v>2.597698926925659</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_9</t>
+          <t>model_12_1_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4949224290032578</v>
+        <v>0.2190467877082372</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.07726069116874</v>
+        <v>-0.5468734627972971</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6001311597136867</v>
+        <v>-1.088572402842591</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7972831871820383</v>
+        <v>-0.667905696708164</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5589720606803894</v>
+        <v>0.8642851114273071</v>
       </c>
       <c r="G18" t="n">
-        <v>1.776288509368896</v>
+        <v>1.500711798667908</v>
       </c>
       <c r="H18" t="n">
-        <v>1.887354850769043</v>
+        <v>3.800614833831787</v>
       </c>
       <c r="I18" t="n">
-        <v>1.828557014465332</v>
+        <v>2.58301830291748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_11</t>
+          <t>model_12_1_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4950021937347834</v>
+        <v>0.2208006738004115</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.068122950104319</v>
+        <v>-0.5369130898610892</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6084699392934088</v>
+        <v>-1.087171061605665</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.7977639450875305</v>
+        <v>-0.6638274432567095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5588837265968323</v>
+        <v>0.862343966960907</v>
       </c>
       <c r="G19" t="n">
-        <v>1.768474936485291</v>
+        <v>1.491048574447632</v>
       </c>
       <c r="H19" t="n">
-        <v>1.89719033241272</v>
+        <v>3.798064231872559</v>
       </c>
       <c r="I19" t="n">
-        <v>1.829046249389648</v>
+        <v>2.576702356338501</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_5</t>
+          <t>model_12_1_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.498163972426215</v>
+        <v>0.221299118031314</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.057151006783308</v>
+        <v>-0.5368051273747769</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5834559007807458</v>
+        <v>-1.084920192491017</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7792362709222789</v>
+        <v>-0.6625475086439476</v>
       </c>
       <c r="F20" t="n">
-        <v>0.555384635925293</v>
+        <v>0.8617924451828003</v>
       </c>
       <c r="G20" t="n">
-        <v>1.759092569351196</v>
+        <v>1.490943908691406</v>
       </c>
       <c r="H20" t="n">
-        <v>1.86768627166748</v>
+        <v>3.793968677520752</v>
       </c>
       <c r="I20" t="n">
-        <v>1.810196280479431</v>
+        <v>2.574720144271851</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_8</t>
+          <t>model_12_1_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4987180667168083</v>
+        <v>0.22267529413147</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.077393691099706</v>
+        <v>-0.5195304006809676</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5733322663653253</v>
+        <v>-1.089549712934801</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.7827207476135851</v>
+        <v>-0.6593782750946686</v>
       </c>
       <c r="F21" t="n">
-        <v>0.554771363735199</v>
+        <v>0.8602692484855652</v>
       </c>
       <c r="G21" t="n">
-        <v>1.776402235031128</v>
+        <v>1.474184632301331</v>
       </c>
       <c r="H21" t="n">
-        <v>1.855745553970337</v>
+        <v>3.802392959594727</v>
       </c>
       <c r="I21" t="n">
-        <v>1.813741207122803</v>
+        <v>2.569812059402466</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_3</t>
+          <t>model_12_1_9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5085125677560984</v>
+        <v>0.2306393311558016</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9834820688506609</v>
+        <v>-0.2889210120454686</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.506239516114785</v>
+        <v>-0.5673730446289806</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.7043287183467981</v>
+        <v>-0.2941566868331036</v>
       </c>
       <c r="F22" t="n">
-        <v>0.543931782245636</v>
+        <v>0.8514556288719177</v>
       </c>
       <c r="G22" t="n">
-        <v>1.696097373962402</v>
+        <v>1.250457167625427</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776609659194946</v>
+        <v>2.852178335189819</v>
       </c>
       <c r="I22" t="n">
-        <v>1.733985304832458</v>
+        <v>2.004208087921143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_4</t>
+          <t>model_12_1_11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5098428483690869</v>
+        <v>0.2353821424790086</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.009125246508307</v>
+        <v>-0.6275130350024014</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5372077609825205</v>
+        <v>-0.5006836481565826</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.732634415515264</v>
+        <v>-0.3695745628052454</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5424595475196838</v>
+        <v>0.8462066650390625</v>
       </c>
       <c r="G23" t="n">
-        <v>1.718025088310242</v>
+        <v>1.57894492149353</v>
       </c>
       <c r="H23" t="n">
-        <v>1.813136696815491</v>
+        <v>2.730822086334229</v>
       </c>
       <c r="I23" t="n">
-        <v>1.762783527374268</v>
+        <v>2.121004819869995</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_2</t>
+          <t>model_12_1_10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5537787122088788</v>
+        <v>0.2458224838007791</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.747119265005316</v>
+        <v>-0.4173551063424195</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3162525558659517</v>
+        <v>-0.5089721198807835</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4955055216329594</v>
+        <v>-0.3044587401506924</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4938354790210724</v>
+        <v>0.8346522450447083</v>
       </c>
       <c r="G24" t="n">
-        <v>1.493980884552002</v>
+        <v>1.375058531761169</v>
       </c>
       <c r="H24" t="n">
-        <v>1.552520036697388</v>
+        <v>2.745905160903931</v>
       </c>
       <c r="I24" t="n">
-        <v>1.521528363227844</v>
+        <v>2.020162582397461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_1</t>
+          <t>model_12_1_7</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7648825265486103</v>
+        <v>0.2609609680673114</v>
       </c>
       <c r="C25" t="n">
-        <v>0.396168953361389</v>
+        <v>-0.2138954441300116</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4077557211700829</v>
+        <v>-0.2239110455247231</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4082092085013985</v>
+        <v>-0.07935577793282178</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2602057456970215</v>
+        <v>0.8178984522819519</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5163426399230957</v>
+        <v>1.177670478820801</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6985521912574768</v>
+        <v>2.227174043655396</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6020883321762085</v>
+        <v>1.671554565429688</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_0</t>
+          <t>model_12_1_8</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8546496082769863</v>
+        <v>0.2614415255701</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9072948456347456</v>
+        <v>-0.2191571376706682</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7597612326645479</v>
+        <v>-0.2289419862623232</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8276841107375599</v>
+        <v>-0.08388255121584876</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1608600616455078</v>
+        <v>0.8173666000366211</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07927319407463074</v>
+        <v>1.182775020599365</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2833616435527802</v>
+        <v>2.236328840255737</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1753143072128296</v>
+        <v>1.67856502532959</v>
       </c>
     </row>
   </sheetData>
